--- a/Structure/2 - Renewables/Electricity/RenElecRevisions.xlsx
+++ b/Structure/2 - Renewables/Electricity/RenElecRevisions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Electricity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AAAE3AB-27D8-4FF6-B2DD-C7F3A4455CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184242D0-8CC4-4835-BC1E-A4DEE28C1386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="370" yWindow="2390" windowWidth="28800" windowHeight="15380" xr2:uid="{36DC8B1A-6C02-478D-B03D-851BDDDFAB6E}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>Revision Date</t>
   </si>
   <si>
-    <t>2020 Reneable Electricity</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
-    <t>2019 Renewable Electricity</t>
+    <t>2020 - Reneable Electricity</t>
+  </si>
+  <si>
+    <t>2019 - Renewable Electricity</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -435,7 +435,7 @@
         <v>44374</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>0.95899999999999996</v>
